--- a/Student Files/CH4-Charting Solution 1_2.xlsx
+++ b/Student Files/CH4-Charting Solution 1_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gself\Desktop\Excel 365 Exercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gself\Dropbox\GitHub\cll_excel\Student Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE022C8-B0F6-48A2-AC78-D6D134C4081A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3803C54-D704-4CDE-9FAC-39FF8892319C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29685" yWindow="720" windowWidth="19365" windowHeight="14205" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30525" yWindow="645" windowWidth="16485" windowHeight="14340" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Closing Prices" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="All Excel Classes" sheetId="6" r:id="rId3"/>
     <sheet name="Grade Distribution" sheetId="1" r:id="rId4"/>
     <sheet name="Enrollment by Race Chart" sheetId="7" r:id="rId5"/>
-    <sheet name="Enrolment Statistics" sheetId="3" r:id="rId6"/>
+    <sheet name="Enrollment Statistics" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -1992,6 +1992,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="611965360"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3205,7 +3206,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Enrolment Statistics'!$A$3</c:f>
+              <c:f>'Enrollment Statistics'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3226,7 +3227,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Enrolment Statistics'!$B$2:$D$2</c:f>
+              <c:f>'Enrollment Statistics'!$B$2:$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3243,7 +3244,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Enrolment Statistics'!$B$3:$D$3</c:f>
+              <c:f>'Enrollment Statistics'!$B$3:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3270,7 +3271,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Enrolment Statistics'!$A$4</c:f>
+              <c:f>'Enrollment Statistics'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3291,7 +3292,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Enrolment Statistics'!$B$2:$D$2</c:f>
+              <c:f>'Enrollment Statistics'!$B$2:$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3308,7 +3309,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Enrolment Statistics'!$B$4:$D$4</c:f>
+              <c:f>'Enrollment Statistics'!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3335,7 +3336,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Enrolment Statistics'!$A$5</c:f>
+              <c:f>'Enrollment Statistics'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3356,7 +3357,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Enrolment Statistics'!$B$2:$D$2</c:f>
+              <c:f>'Enrollment Statistics'!$B$2:$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3373,7 +3374,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Enrolment Statistics'!$B$5:$D$5</c:f>
+              <c:f>'Enrollment Statistics'!$B$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3400,7 +3401,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Enrolment Statistics'!$A$6</c:f>
+              <c:f>'Enrollment Statistics'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3421,7 +3422,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Enrolment Statistics'!$B$2:$D$2</c:f>
+              <c:f>'Enrollment Statistics'!$B$2:$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3438,7 +3439,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Enrolment Statistics'!$B$6:$D$6</c:f>
+              <c:f>'Enrollment Statistics'!$B$6:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3814,7 +3815,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Enrolment Statistics'!$B$2</c:f>
+              <c:f>'Enrollment Statistics'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3838,6 +3839,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F840-4D76-A351-2E16B957CBFB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3853,6 +3859,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F840-4D76-A351-2E16B957CBFB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3868,6 +3879,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F840-4D76-A351-2E16B957CBFB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3883,6 +3899,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-F840-4D76-A351-2E16B957CBFB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3941,7 +3962,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Enrolment Statistics'!$A$3:$A$6</c:f>
+              <c:f>'Enrollment Statistics'!$A$3:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3961,7 +3982,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Enrolment Statistics'!$B$3:$B$6</c:f>
+              <c:f>'Enrollment Statistics'!$B$3:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7920,7 +7941,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9C2A51F5-9674-4B28-96CD-1BDA7C45E3F6}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="99" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8115,7 +8136,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8670696" cy="6294356"/>
+    <xdr:ext cx="8668712" cy="6292273"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10083,7 +10104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D6"/>
     </sheetView>
   </sheetViews>
